--- a/data_clean/stock_movement.xlsx
+++ b/data_clean/stock_movement.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,170 @@
         <v>-7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-3811-01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10000-01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10000-01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10000-02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
